--- a/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
+++ b/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="98">
   <si>
     <t>土地坐落</t>
   </si>
@@ -198,6 +198,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中鋼</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
   </si>
   <si>
     <t>6，250</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1371,13 +1383,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1396,13 +1408,22 @@
       <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1419,13 +1440,22 @@
       <c r="G2" s="2">
         <v>5560</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1442,13 +1472,22 @@
       <c r="G3" s="2">
         <v>4380</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1465,13 +1504,22 @@
       <c r="G4" s="2">
         <v>19120</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1488,13 +1536,22 @@
       <c r="G5" s="2">
         <v>4590</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1509,7 +1566,16 @@
         <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
@@ -1527,22 +1593,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
@@ -1553,13 +1619,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>13.251</v>
@@ -1579,13 +1645,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>14157.8</v>
@@ -1605,13 +1671,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1631,13 +1697,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2">
         <v>6187.3</v>
@@ -1657,13 +1723,13 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2">
         <v>19931.3</v>
@@ -1683,13 +1749,13 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2">
         <v>9495.7</v>
@@ -1709,13 +1775,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2">
         <v>6000.8</v>
@@ -1735,13 +1801,13 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2">
         <v>50.41</v>
@@ -1761,13 +1827,13 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2">
         <v>117.007</v>
@@ -1787,13 +1853,13 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2">
         <v>41.629</v>
@@ -1813,13 +1879,13 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2">
         <v>14.003</v>
@@ -1839,13 +1905,13 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -1865,13 +1931,13 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2">
         <v>108.22</v>
@@ -1891,13 +1957,13 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2">
         <v>135.93</v>
@@ -1917,13 +1983,13 @@
         <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2">
         <v>41.927</v>
@@ -1943,13 +2009,13 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2">
         <v>42.71</v>
@@ -1969,13 +2035,13 @@
         <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2">
         <v>34.389</v>
@@ -1995,13 +2061,13 @@
         <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2">
         <v>32.131</v>
@@ -2021,13 +2087,13 @@
         <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2">
         <v>42.93</v>
@@ -2036,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2">
         <v>12673</v>
@@ -2047,13 +2113,13 @@
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>

--- a/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
+++ b/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="100">
   <si>
     <t>土地坐落</t>
   </si>
@@ -198,6 +198,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -222,7 +225,10 @@
     <t>台紙</t>
   </si>
   <si>
-    <t>6，250</t>
+    <t>6250</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-20</t>
@@ -1383,13 +1389,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1417,13 +1423,16 @@
       <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1441,21 +1450,24 @@
         <v>5560</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1709</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1473,21 +1485,24 @@
         <v>4380</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1709</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1505,21 +1520,24 @@
         <v>19120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1709</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1537,21 +1555,24 @@
         <v>4590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1709</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1566,15 +1587,18 @@
         <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1709</v>
       </c>
     </row>
@@ -1593,22 +1617,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
@@ -1619,13 +1643,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>13.251</v>
@@ -1645,13 +1669,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>14157.8</v>
@@ -1671,13 +1695,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1697,13 +1721,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
         <v>6187.3</v>
@@ -1723,13 +1747,13 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
         <v>19931.3</v>
@@ -1749,13 +1773,13 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2">
         <v>9495.7</v>
@@ -1775,13 +1799,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2">
         <v>6000.8</v>
@@ -1801,13 +1825,13 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2">
         <v>50.41</v>
@@ -1827,13 +1851,13 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2">
         <v>117.007</v>
@@ -1853,13 +1877,13 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2">
         <v>41.629</v>
@@ -1879,13 +1903,13 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2">
         <v>14.003</v>
@@ -1905,13 +1929,13 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -1931,13 +1955,13 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2">
         <v>108.22</v>
@@ -1957,13 +1981,13 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2">
         <v>135.93</v>
@@ -1983,13 +2007,13 @@
         <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2">
         <v>41.927</v>
@@ -2009,13 +2033,13 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2">
         <v>42.71</v>
@@ -2035,13 +2059,13 @@
         <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2">
         <v>34.389</v>
@@ -2061,13 +2085,13 @@
         <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2">
         <v>32.131</v>
@@ -2087,13 +2111,13 @@
         <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2">
         <v>42.93</v>
@@ -2102,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H20" s="2">
         <v>12673</v>
@@ -2113,13 +2137,13 @@
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>

--- a/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
+++ b/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="105">
   <si>
     <t>土地坐落</t>
   </si>
@@ -201,6 +201,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -210,6 +213,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中鋼</t>
   </si>
   <si>
@@ -231,7 +240,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmpacad1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1389,13 +1404,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1426,13 +1441,22 @@
       <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1450,24 +1474,33 @@
         <v>5560</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1709</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1485,24 +1518,33 @@
         <v>4380</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1709</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1520,24 +1562,33 @@
         <v>19120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1709</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1555,24 +1606,33 @@
         <v>4590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1709</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1587,19 +1647,28 @@
         <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1709</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1617,22 +1686,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
@@ -1643,13 +1712,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>13.251</v>
@@ -1669,13 +1738,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>14157.8</v>
@@ -1695,13 +1764,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1721,13 +1790,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <v>6187.3</v>
@@ -1747,13 +1816,13 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2">
         <v>19931.3</v>
@@ -1773,13 +1842,13 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>9495.7</v>
@@ -1799,13 +1868,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2">
         <v>6000.8</v>
@@ -1825,13 +1894,13 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2">
         <v>50.41</v>
@@ -1851,13 +1920,13 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2">
         <v>117.007</v>
@@ -1877,13 +1946,13 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2">
         <v>41.629</v>
@@ -1903,13 +1972,13 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2">
         <v>14.003</v>
@@ -1929,13 +1998,13 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -1955,13 +2024,13 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2">
         <v>108.22</v>
@@ -1981,13 +2050,13 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2">
         <v>135.93</v>
@@ -2007,13 +2076,13 @@
         <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2">
         <v>41.927</v>
@@ -2033,13 +2102,13 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2">
         <v>42.71</v>
@@ -2059,13 +2128,13 @@
         <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2">
         <v>34.389</v>
@@ -2085,13 +2154,13 @@
         <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2">
         <v>32.131</v>
@@ -2111,13 +2180,13 @@
         <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2">
         <v>42.93</v>
@@ -2126,7 +2195,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H20" s="2">
         <v>12673</v>
@@ -2137,13 +2206,13 @@
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>

--- a/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
+++ b/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
@@ -19,9 +19,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="105">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="104">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段二小段08650000地號</t>
+  </si>
+  <si>
+    <t>臺南市麻豆區安業段01050000地號</t>
+  </si>
+  <si>
+    <t>36分之1</t>
+  </si>
+  <si>
+    <t>6分之1</t>
+  </si>
+  <si>
+    <t>陳節如</t>
+  </si>
+  <si>
+    <t>李薰楓</t>
+  </si>
+  <si>
+    <t>89年9月</t>
+  </si>
+  <si>
+    <t>45年11月</t>
+  </si>
+  <si>
+    <t>74年1月</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmpacad1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,46 +132,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區龍泉段二小段 0865-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市麻豆區安業段0105-0000 地號</t>
-  </si>
-  <si>
-    <t>36分之1</t>
-  </si>
-  <si>
-    <t>6分之1</t>
-  </si>
-  <si>
-    <t>陳節如</t>
-  </si>
-  <si>
-    <t>李薰楓</t>
-  </si>
-  <si>
-    <t>89年9月</t>
-  </si>
-  <si>
-    <t>45年11月</t>
-  </si>
-  <si>
-    <t>74年1月</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段二小段 08827-000 建號</t>
+    <t>臺北市大安區龍泉段二小段08827000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -102,10 +153,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
-    <t>外 幣總額</t>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -117,19 +168,13 @@
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司師 大郵局</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行襄陽分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行古亭分 行</t>
+    <t>中華郵政股份有限公司師大郵局</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行襄陽分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行古亭分行</t>
   </si>
   <si>
     <t>臺灣銀行和平分行</t>
@@ -138,13 +183,13 @@
     <t>永豐商業銀行世貿分行</t>
   </si>
   <si>
-    <t>星展（台灣)商業銀行大安 分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行古亭分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司永 貞分行</t>
+    <t>星展（台灣)商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司永貞分行</t>
   </si>
   <si>
     <t>臺灣士地銀行古亭分行</t>
@@ -153,7 +198,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行仁愛分 行</t>
+    <t>台北富邦商業銀行仁愛分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -177,13 +222,7 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>1’265，823</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>1265823</t>
   </si>
   <si>
     <t>quantity</t>
@@ -198,27 +237,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中鋼</t>
   </si>
   <si>
@@ -240,15 +258,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-20</t>
-  </si>
-  <si>
-    <t>tmpacad1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -312,28 +321,16 @@
     <t>BR世界礦業</t>
   </si>
   <si>
-    <t>台北富邦商業 銀行古亭分行</t>
-  </si>
-  <si>
-    <t>保誠證券投資 信託公司</t>
-  </si>
-  <si>
-    <t>元大證券投資 信託公司</t>
-  </si>
-  <si>
-    <t>國泰世華商業 銀行古亭分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業 銀行襄陽分行</t>
-  </si>
-  <si>
-    <t>安泰證券信託 投資公司</t>
-  </si>
-  <si>
-    <t>星展（台灣）商 業銀行大安分 行</t>
-  </si>
-  <si>
-    <t>美金 '</t>
+    <t>保誠證券投資信託公司</t>
+  </si>
+  <si>
+    <t>元大證券投資信託公司</t>
+  </si>
+  <si>
+    <t>安泰證券信託投資公司</t>
+  </si>
+  <si>
+    <t>星展（台灣）商業銀行大安分行</t>
   </si>
 </sst>
 </file>
@@ -692,13 +689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,109 +717,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1073</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>650</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="M4" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>1073</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -840,25 +942,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -866,25 +968,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>105.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -892,25 +994,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>105.37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -928,16 +1030,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -945,16 +1047,16 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -972,22 +1074,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -995,16 +1097,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1016,16 +1118,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1037,16 +1139,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1058,16 +1160,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>3997.24</v>
@@ -1081,16 +1183,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
         <v>839.71</v>
@@ -1104,16 +1206,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1125,16 +1227,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1146,20 +1248,20 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1167,16 +1269,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1188,16 +1290,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
         <v>378.53</v>
@@ -1211,16 +1313,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1232,16 +1334,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1253,16 +1355,16 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1274,16 +1376,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1295,16 +1397,16 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1316,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1337,16 +1439,16 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1358,16 +1460,16 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1379,16 +1481,16 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2">
         <v>16715.46</v>
@@ -1412,43 +1514,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1456,10 +1558,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>556</v>
@@ -1468,28 +1570,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>5560</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>1709</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2">
         <v>72</v>
@@ -1500,10 +1602,10 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>438</v>
@@ -1512,28 +1614,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2">
         <v>4380</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>1709</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2">
         <v>73</v>
@@ -1544,10 +1646,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>1912</v>
@@ -1556,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>19120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>1709</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2">
         <v>74</v>
@@ -1588,10 +1690,10 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>459</v>
@@ -1600,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2">
         <v>4590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <v>1709</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2">
         <v>75</v>
@@ -1632,10 +1734,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>625</v>
@@ -1644,28 +1746,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
         <v>1709</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2">
         <v>76</v>
@@ -1686,25 +1788,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1712,13 +1814,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2">
         <v>13.251</v>
@@ -1727,7 +1829,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2">
         <v>5152</v>
@@ -1738,13 +1840,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>14157.8</v>
@@ -1753,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2">
         <v>141578</v>
@@ -1764,13 +1866,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1779,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2">
         <v>12794</v>
@@ -1790,13 +1892,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2">
         <v>6187.3</v>
@@ -1805,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2">
         <v>61873</v>
@@ -1816,13 +1918,13 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2">
         <v>19931.3</v>
@@ -1831,7 +1933,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2">
         <v>199313</v>
@@ -1842,13 +1944,13 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
         <v>9495.7</v>
@@ -1857,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2">
         <v>94957</v>
@@ -1868,13 +1970,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
         <v>6000.8</v>
@@ -1883,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2">
         <v>60008</v>
@@ -1894,13 +1996,13 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2">
         <v>50.41</v>
@@ -1909,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2">
         <v>14882</v>
@@ -1920,13 +2022,13 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2">
         <v>117.007</v>
@@ -1935,7 +2037,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2">
         <v>34542</v>
@@ -1946,13 +2048,13 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2">
         <v>41.629</v>
@@ -1961,7 +2063,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2">
         <v>16186</v>
@@ -1972,13 +2074,13 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2">
         <v>14.003</v>
@@ -1987,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2">
         <v>4134</v>
@@ -1998,10 +2100,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>102</v>
@@ -2013,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H13" s="2">
         <v>62594</v>
@@ -2024,10 +2126,10 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>103</v>
@@ -2039,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2">
         <v>31948</v>
@@ -2050,13 +2152,13 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2">
         <v>135.93</v>
@@ -2065,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2">
         <v>40128</v>
@@ -2076,13 +2178,13 @@
         <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2">
         <v>41.927</v>
@@ -2091,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2">
         <v>12377</v>
@@ -2102,13 +2204,13 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
         <v>42.71</v>
@@ -2117,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H17" s="2">
         <v>16607</v>
@@ -2128,13 +2230,13 @@
         <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2">
         <v>34.389</v>
@@ -2143,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H18" s="2">
         <v>10152</v>
@@ -2154,13 +2256,13 @@
         <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2">
         <v>32.131</v>
@@ -2169,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H19" s="2">
         <v>9485</v>
@@ -2180,13 +2282,13 @@
         <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2">
         <v>42.93</v>
@@ -2195,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="H20" s="2">
         <v>12673</v>
@@ -2206,13 +2308,13 @@
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>
@@ -2221,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H21" s="2">
         <v>9647</v>

--- a/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
+++ b/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -63,114 +63,90 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>臺南市麻豆區安業段01050000地號</t>
+  </si>
+  <si>
     <t>臺北市大安區龍泉段二小段08650000地號</t>
   </si>
   <si>
-    <t>臺南市麻豆區安業段01050000地號</t>
+    <t>6分之1</t>
   </si>
   <si>
     <t>36分之1</t>
   </si>
   <si>
-    <t>6分之1</t>
+    <t>李薰楓</t>
+  </si>
+  <si>
+    <t>45年11月</t>
+  </si>
+  <si>
+    <t>74年1月</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
   </si>
   <si>
     <t>陳節如</t>
   </si>
   <si>
-    <t>李薰楓</t>
+    <t>tmpacad1</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段二小段08827000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>89年9月</t>
   </si>
   <si>
-    <t>45年11月</t>
-  </si>
-  <si>
-    <t>74年1月</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-20</t>
-  </si>
-  <si>
-    <t>tmpacad1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段二小段08827000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>74年2月</t>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>中華郵政股份有限公司師大郵局</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行襄陽分行</t>
   </si>
   <si>
@@ -201,9 +177,6 @@
     <t>台北富邦商業銀行仁愛分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -213,9 +186,6 @@
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -234,12 +204,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>中鋼</t>
-  </si>
-  <si>
     <t>大同</t>
   </si>
   <si>
@@ -256,21 +220,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
   </si>
   <si>
     <t>德利資源</t>
@@ -689,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,25 +687,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1073</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -774,39 +729,45 @@
         <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2">
         <v>1709</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>8.83333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>53</v>
+        <v>650</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>25</v>
@@ -821,36 +782,42 @@
         <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>1709</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>108.333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>650</v>
+        <v>1073</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
@@ -868,63 +835,22 @@
         <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2">
         <v>1709</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1073</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1709</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="2">
-        <v>16</v>
+      <c r="P4" s="2">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>29.8055555555556</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +860,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -942,76 +868,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>105.37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>105.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2">
-        <v>105.37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1022,41 +922,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +949,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1074,428 +957,405 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>125120</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>125120</v>
+        <v>319593</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>319593</v>
+        <v>395910</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3997.24</v>
+      </c>
       <c r="G4" s="2">
-        <v>395910</v>
+        <v>118003</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>3997.24</v>
+        <v>839.71</v>
       </c>
       <c r="G5" s="2">
-        <v>118003</v>
+        <v>32650</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>839.71</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>32650</v>
+        <v>2820980</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>2820980</v>
+        <v>1695600</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1695600</v>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>67</v>
+      <c r="G9" s="2">
+        <v>500000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>378.53</v>
+      </c>
       <c r="G10" s="2">
-        <v>500000</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2">
-        <v>378.53</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>11175</v>
+        <v>562053</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>562053</v>
+        <v>566671</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>566671</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>92</v>
+        <v>1234145</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1234145</v>
+        <v>8600214</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>8600214</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>4000000</v>
+        <v>7607</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>7607</v>
+        <v>37071</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F19" s="2">
+        <v>16715.46</v>
+      </c>
       <c r="G19" s="2">
-        <v>37071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>63</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2">
-        <v>16715.46</v>
-      </c>
-      <c r="G20" s="2">
         <v>493457</v>
       </c>
     </row>
@@ -1506,7 +1366,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1520,16 +1380,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1555,28 +1415,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
-        <v>556</v>
+        <v>438</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
-        <v>5560</v>
+        <v>4380</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1585,42 +1445,42 @@
         <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2">
         <v>1709</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
-        <v>438</v>
+        <v>1912</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
-        <v>4380</v>
+        <v>19120</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1629,42 +1489,42 @@
         <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2">
         <v>1709</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
-        <v>1912</v>
+        <v>459</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
-        <v>19120</v>
+        <v>4590</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1673,42 +1533,42 @@
         <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2">
         <v>1709</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
-        <v>459</v>
+        <v>625</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4590</v>
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -1717,59 +1577,15 @@
         <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2">
         <v>1709</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>76</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>625</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1709</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="2">
         <v>76</v>
       </c>
     </row>
@@ -1780,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1788,544 +1604,518 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
+      <c r="E1" s="1">
+        <v>13.251</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5152</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
-        <v>13.251</v>
+        <v>14157.8</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2">
-        <v>5152</v>
+        <v>141578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
-        <v>14157.8</v>
+        <v>1279.4</v>
       </c>
       <c r="F3" s="2">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2">
-        <v>141578</v>
+        <v>12794</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
-        <v>1279.4</v>
+        <v>6187.3</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2">
-        <v>12794</v>
+        <v>61873</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
-        <v>6187.3</v>
+        <v>19931.3</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2">
-        <v>61873</v>
+        <v>199313</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2">
-        <v>19931.3</v>
+        <v>9495.7</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2">
-        <v>199313</v>
+        <v>94957</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2">
-        <v>9495.7</v>
+        <v>6000.8</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2">
-        <v>94957</v>
+        <v>60008</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2">
-        <v>6000.8</v>
+        <v>50.41</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
-        <v>60008</v>
+        <v>14882</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
-        <v>50.41</v>
+        <v>117.007</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
-        <v>14882</v>
+        <v>34542</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2">
-        <v>117.007</v>
+        <v>41.629</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2">
-        <v>34542</v>
+        <v>16186</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14.003</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="2">
-        <v>41.629</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="H11" s="2">
-        <v>16186</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2">
-        <v>14.003</v>
+        <v>6259.39</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2">
-        <v>4134</v>
+        <v>62594</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2">
-        <v>6259.39</v>
+        <v>108.22</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2">
-        <v>62594</v>
+        <v>31948</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2">
-        <v>108.22</v>
+        <v>135.93</v>
       </c>
       <c r="F14" s="2">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2">
-        <v>31948</v>
+        <v>40128</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2">
-        <v>135.93</v>
+        <v>41.927</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2">
-        <v>40128</v>
+        <v>12377</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2">
-        <v>41.927</v>
+        <v>42.71</v>
       </c>
       <c r="F16" s="2">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H16" s="2">
-        <v>12377</v>
+        <v>16607</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2">
-        <v>42.71</v>
+        <v>34.389</v>
       </c>
       <c r="F17" s="2">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2">
-        <v>16607</v>
+        <v>10152</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2">
-        <v>34.389</v>
+        <v>32.131</v>
       </c>
       <c r="F18" s="2">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2">
-        <v>10152</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2">
-        <v>32.131</v>
+        <v>42.93</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H19" s="2">
-        <v>9485</v>
+        <v>12673</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2">
-        <v>42.93</v>
+        <v>32.68</v>
       </c>
       <c r="F20" s="2">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H20" s="2">
-        <v>12673</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>119</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="2">
-        <v>32.68</v>
-      </c>
-      <c r="F21" s="2">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="2">
         <v>9647</v>
       </c>
     </row>

--- a/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
+++ b/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -69,33 +69,39 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區龍泉段二小段08650000地號</t>
+  </si>
+  <si>
     <t>臺南市麻豆區安業段01050000地號</t>
   </si>
   <si>
-    <t>臺北市大安區龍泉段二小段08650000地號</t>
+    <t>36分之1</t>
   </si>
   <si>
     <t>6分之1</t>
   </si>
   <si>
-    <t>36分之1</t>
+    <t>陳節如</t>
   </si>
   <si>
     <t>李薰楓</t>
   </si>
   <si>
+    <t>89年9月</t>
+  </si>
+  <si>
     <t>45年11月</t>
   </si>
   <si>
     <t>74年1月</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -108,9 +114,6 @@
     <t>2012-04-20</t>
   </si>
   <si>
-    <t>陳節如</t>
-  </si>
-  <si>
     <t>tmpacad1</t>
   </si>
   <si>
@@ -120,9 +123,6 @@
     <t>全部</t>
   </si>
   <si>
-    <t>89年9月</t>
-  </si>
-  <si>
     <t>74年2月</t>
   </si>
   <si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>中鋼</t>
   </si>
   <si>
     <t>大同</t>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,13 +699,13 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>53</v>
+        <v>1073</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -711,145 +714,198 @@
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>1709</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.166666666666667</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Q2" s="2">
-        <v>8.83333333333333</v>
+        <v>29.8055555555556</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>650</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2">
         <v>1709</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.166666666666667</v>
       </c>
       <c r="Q3" s="2">
-        <v>108.333333333333</v>
+        <v>8.83333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>1073</v>
+        <v>650</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M4" s="2">
         <v>1709</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>108.333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1073</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="2">
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P5" s="2">
         <v>0.0277777777777778</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q5" s="2">
         <v>29.8055555555556</v>
       </c>
     </row>
@@ -860,59 +916,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1">
-        <v>105.37</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>105.37</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>105.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2">
+        <v>105.37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>105.37</v>
       </c>
     </row>
   </sheetData>
@@ -922,13 +1085,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
@@ -939,6 +1102,23 @@
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -949,7 +1129,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -966,7 +1146,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -975,31 +1155,31 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>319593</v>
+        <v>125120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -1008,16 +1188,16 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>395910</v>
+        <v>319593</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>43</v>
@@ -1026,21 +1206,19 @@
         <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3997.24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>118003</v>
+        <v>395910</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>43</v>
@@ -1049,152 +1227,154 @@
         <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>839.71</v>
+        <v>3997.24</v>
       </c>
       <c r="G5" s="2">
-        <v>32650</v>
+        <v>118003</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>839.71</v>
+      </c>
       <c r="G6" s="2">
-        <v>2820980</v>
+        <v>32650</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1695600</v>
+        <v>2820980</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>57</v>
+      <c r="G8" s="2">
+        <v>1695600</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>500000</v>
+      <c r="G9" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2">
-        <v>378.53</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>11175</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F11" s="2">
+        <v>378.53</v>
+      </c>
       <c r="G11" s="2">
-        <v>562053</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -1203,19 +1383,19 @@
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>566671</v>
+        <v>562053</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -1224,19 +1404,19 @@
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>92</v>
+        <v>566671</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
@@ -1245,82 +1425,82 @@
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1234145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>8600214</v>
+        <v>1234145</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>4000000</v>
+        <v>8600214</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>7607</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
@@ -1329,33 +1509,54 @@
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>37071</v>
+        <v>7607</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>37071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
         <v>16715.46</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>493457</v>
       </c>
     </row>
@@ -1366,7 +1567,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1415,177 +1616,221 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>556</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5560</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2">
-        <v>438</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4380</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>1709</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>438</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4380</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2">
-        <v>1912</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2">
-        <v>19120</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>1709</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1912</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2">
+        <v>19120</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2">
-        <v>459</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4590</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
         <v>1709</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>459</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4590</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2">
-        <v>625</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>1709</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>625</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="2">
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1709</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
         <v>76</v>
       </c>
     </row>
@@ -1596,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1604,10 +1849,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>43</v>
@@ -1627,45 +1872,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
-        <v>14157.8</v>
+        <v>13.251</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
-        <v>141578</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E3" s="2">
-        <v>1279.4</v>
+        <v>14157.8</v>
       </c>
       <c r="F3" s="2">
         <v>10</v>
@@ -1674,24 +1919,24 @@
         <v>41</v>
       </c>
       <c r="H3" s="2">
-        <v>12794</v>
+        <v>141578</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
-        <v>6187.3</v>
+        <v>1279.4</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
@@ -1700,24 +1945,24 @@
         <v>41</v>
       </c>
       <c r="H4" s="2">
-        <v>61873</v>
+        <v>12794</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
-        <v>19931.3</v>
+        <v>6187.3</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
@@ -1726,24 +1971,24 @@
         <v>41</v>
       </c>
       <c r="H5" s="2">
-        <v>199313</v>
+        <v>61873</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2">
-        <v>9495.7</v>
+        <v>19931.3</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
@@ -1752,24 +1997,24 @@
         <v>41</v>
       </c>
       <c r="H6" s="2">
-        <v>94957</v>
+        <v>199313</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
-        <v>6000.8</v>
+        <v>9495.7</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
@@ -1778,50 +2023,50 @@
         <v>41</v>
       </c>
       <c r="H7" s="2">
-        <v>60008</v>
+        <v>94957</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
-        <v>50.41</v>
+        <v>6000.8</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2">
-        <v>14882</v>
+        <v>60008</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2">
-        <v>117.007</v>
+        <v>50.41</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -1830,128 +2075,128 @@
         <v>55</v>
       </c>
       <c r="H9" s="2">
-        <v>34542</v>
+        <v>14882</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="2">
-        <v>41.629</v>
+        <v>117.007</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2">
-        <v>16186</v>
+        <v>34542</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2">
-        <v>14.003</v>
+        <v>41.629</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2">
-        <v>4134</v>
+        <v>16186</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2">
-        <v>6259.39</v>
+        <v>14.003</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2">
-        <v>62594</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="2">
-        <v>108.22</v>
+        <v>6259.39</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H13" s="2">
-        <v>31948</v>
+        <v>62594</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2">
-        <v>135.93</v>
+        <v>108.22</v>
       </c>
       <c r="F14" s="2">
         <v>10</v>
@@ -1960,24 +2205,24 @@
         <v>55</v>
       </c>
       <c r="H14" s="2">
-        <v>40128</v>
+        <v>31948</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="2">
-        <v>41.927</v>
+        <v>135.93</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
@@ -1986,76 +2231,76 @@
         <v>55</v>
       </c>
       <c r="H15" s="2">
-        <v>12377</v>
+        <v>40128</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="2">
-        <v>42.71</v>
+        <v>41.927</v>
       </c>
       <c r="F16" s="2">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="2">
-        <v>16607</v>
+        <v>12377</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="2">
-        <v>34.389</v>
+        <v>42.71</v>
       </c>
       <c r="F17" s="2">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="2">
-        <v>10152</v>
+        <v>16607</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="2">
-        <v>32.131</v>
+        <v>34.389</v>
       </c>
       <c r="F18" s="2">
         <v>10</v>
@@ -2064,24 +2309,24 @@
         <v>55</v>
       </c>
       <c r="H18" s="2">
-        <v>9485</v>
+        <v>10152</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="2">
-        <v>42.93</v>
+        <v>32.131</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
@@ -2090,24 +2335,24 @@
         <v>55</v>
       </c>
       <c r="H19" s="2">
-        <v>12673</v>
+        <v>9485</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="2">
-        <v>32.68</v>
+        <v>42.93</v>
       </c>
       <c r="F20" s="2">
         <v>10</v>
@@ -2116,6 +2361,32 @@
         <v>55</v>
       </c>
       <c r="H20" s="2">
+        <v>12673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>119</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2">
+        <v>32.68</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="2">
         <v>9647</v>
       </c>
     </row>

--- a/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
+++ b/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
@@ -9,17 +9,16 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="航空器" sheetId="3" r:id="rId3"/>
-    <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
+    <sheet name="存款" sheetId="3" r:id="rId3"/>
+    <sheet name="股票" sheetId="4" r:id="rId4"/>
+    <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -126,16 +125,7 @@
     <t>74年2月</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>building</t>
   </si>
   <si>
     <t>中華郵政股份有限公司師大郵局</t>
@@ -998,7 +988,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -1051,7 +1041,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -1084,50 +1074,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -1137,13 +1083,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1158,13 +1104,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1179,13 +1125,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1200,13 +1146,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1221,13 +1167,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1244,13 +1190,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1267,13 +1213,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1288,13 +1234,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1309,20 +1255,20 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1330,13 +1276,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1351,13 +1297,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1374,13 +1320,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1395,13 +1341,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1416,13 +1362,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1437,13 +1383,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1458,13 +1404,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1479,13 +1425,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -1500,13 +1446,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -1521,13 +1467,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -1542,13 +1488,13 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -1565,7 +1511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -1581,13 +1527,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1619,7 +1565,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1631,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>5560</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1663,7 +1609,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1675,13 +1621,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>4380</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -1707,7 +1653,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1719,13 +1665,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
         <v>19120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -1751,7 +1697,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1763,13 +1709,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
         <v>4590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -1795,7 +1741,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1807,13 +1753,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -1839,7 +1785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -1849,13 +1795,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1">
         <v>13.251</v>
@@ -1864,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1">
         <v>5152</v>
@@ -1875,13 +1821,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
         <v>13.251</v>
@@ -1890,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
         <v>5152</v>
@@ -1901,13 +1847,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>14157.8</v>
@@ -1916,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <v>141578</v>
@@ -1927,13 +1873,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1942,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2">
         <v>12794</v>
@@ -1953,13 +1899,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2">
         <v>6187.3</v>
@@ -1968,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2">
         <v>61873</v>
@@ -1979,13 +1925,13 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>19931.3</v>
@@ -1994,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2">
         <v>199313</v>
@@ -2005,13 +1951,13 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
         <v>9495.7</v>
@@ -2020,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2">
         <v>94957</v>
@@ -2031,13 +1977,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2">
         <v>6000.8</v>
@@ -2046,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2">
         <v>60008</v>
@@ -2057,13 +2003,13 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>50.41</v>
@@ -2072,7 +2018,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2">
         <v>14882</v>
@@ -2083,13 +2029,13 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
         <v>117.007</v>
@@ -2098,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2">
         <v>34542</v>
@@ -2109,13 +2055,13 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
         <v>41.629</v>
@@ -2124,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2">
         <v>16186</v>
@@ -2135,13 +2081,13 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
         <v>14.003</v>
@@ -2150,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
         <v>4134</v>
@@ -2161,13 +2107,13 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -2176,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2">
         <v>62594</v>
@@ -2187,13 +2133,13 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2">
         <v>108.22</v>
@@ -2202,7 +2148,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" s="2">
         <v>31948</v>
@@ -2213,13 +2159,13 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2">
         <v>135.93</v>
@@ -2228,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2">
         <v>40128</v>
@@ -2239,13 +2185,13 @@
         <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2">
         <v>41.927</v>
@@ -2254,7 +2200,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2">
         <v>12377</v>
@@ -2265,13 +2211,13 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2">
         <v>42.71</v>
@@ -2280,7 +2226,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2">
         <v>16607</v>
@@ -2291,13 +2237,13 @@
         <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2">
         <v>34.389</v>
@@ -2306,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2">
         <v>10152</v>
@@ -2317,13 +2263,13 @@
         <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2">
         <v>32.131</v>
@@ -2332,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H19" s="2">
         <v>9485</v>
@@ -2343,13 +2289,13 @@
         <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2">
         <v>42.93</v>
@@ -2358,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H20" s="2">
         <v>12673</v>
@@ -2369,13 +2315,13 @@
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>
@@ -2384,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H21" s="2">
         <v>9647</v>

--- a/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
+++ b/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -128,70 +128,76 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司師大郵局</t>
   </si>
   <si>
+    <t>台北富邦商業銀行襄陽分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行和平分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行世貿分行</t>
+  </si>
+  <si>
+    <t>星展（台灣)商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司永貞分行</t>
+  </si>
+  <si>
+    <t>臺灣士地銀行古亭分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行仁愛分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行襄陽分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行和平分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行世貿分行</t>
-  </si>
-  <si>
-    <t>星展（台灣)商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司永貞分行</t>
-  </si>
-  <si>
-    <t>臺灣士地銀行古亭分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行仁愛分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>1265823</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中鋼</t>
@@ -1075,13 +1081,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1092,418 +1098,810 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>125120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>125120</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>319593</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>395910</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>3997.24</v>
-      </c>
-      <c r="G5" s="2">
         <v>118003</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>32650</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
         <v>49</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2">
-        <v>839.71</v>
-      </c>
-      <c r="G6" s="2">
-        <v>32650</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>2820980</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1695600</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>1265823</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="2">
-        <v>378.53</v>
-      </c>
-      <c r="G11" s="2">
         <v>11175</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>562053</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>566671</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>1234145</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>8600214</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>4000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>7607</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>37071</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="2">
-        <v>16715.46</v>
-      </c>
-      <c r="G20" s="2">
         <v>493457</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1527,13 +1925,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1565,7 +1963,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1577,13 +1975,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2">
         <v>5560</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1609,7 +2007,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1621,13 +2019,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2">
         <v>4380</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -1653,7 +2051,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1665,13 +2063,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2">
         <v>19120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -1697,7 +2095,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1709,13 +2107,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2">
         <v>4590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -1741,7 +2139,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1753,13 +2151,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -1795,13 +2193,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1">
         <v>13.251</v>
@@ -1810,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1">
         <v>5152</v>
@@ -1821,13 +2219,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2">
         <v>13.251</v>
@@ -1836,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
         <v>5152</v>
@@ -1847,13 +2245,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>14157.8</v>
@@ -1862,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2">
         <v>141578</v>
@@ -1873,13 +2271,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1888,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2">
         <v>12794</v>
@@ -1899,13 +2297,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>6187.3</v>
@@ -1914,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2">
         <v>61873</v>
@@ -1925,13 +2323,13 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2">
         <v>19931.3</v>
@@ -1940,7 +2338,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2">
         <v>199313</v>
@@ -1951,13 +2349,13 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
         <v>9495.7</v>
@@ -1966,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2">
         <v>94957</v>
@@ -1977,13 +2375,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2">
         <v>6000.8</v>
@@ -1992,7 +2390,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2">
         <v>60008</v>
@@ -2003,13 +2401,13 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2">
         <v>50.41</v>
@@ -2018,7 +2416,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
         <v>14882</v>
@@ -2029,13 +2427,13 @@
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2">
         <v>117.007</v>
@@ -2044,7 +2442,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2">
         <v>34542</v>
@@ -2055,13 +2453,13 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2">
         <v>41.629</v>
@@ -2070,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2">
         <v>16186</v>
@@ -2081,13 +2479,13 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2">
         <v>14.003</v>
@@ -2096,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2">
         <v>4134</v>
@@ -2107,13 +2505,13 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -2122,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2">
         <v>62594</v>
@@ -2133,13 +2531,13 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2">
         <v>108.22</v>
@@ -2148,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2">
         <v>31948</v>
@@ -2159,13 +2557,13 @@
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2">
         <v>135.93</v>
@@ -2174,7 +2572,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2">
         <v>40128</v>
@@ -2185,13 +2583,13 @@
         <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2">
         <v>41.927</v>
@@ -2200,7 +2598,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H16" s="2">
         <v>12377</v>
@@ -2211,13 +2609,13 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2">
         <v>42.71</v>
@@ -2226,7 +2624,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H17" s="2">
         <v>16607</v>
@@ -2237,13 +2635,13 @@
         <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2">
         <v>34.389</v>
@@ -2252,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2">
         <v>10152</v>
@@ -2263,13 +2661,13 @@
         <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2">
         <v>32.131</v>
@@ -2278,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H19" s="2">
         <v>9485</v>
@@ -2289,13 +2687,13 @@
         <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2">
         <v>42.93</v>
@@ -2304,7 +2702,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H20" s="2">
         <v>12673</v>
@@ -2315,13 +2713,13 @@
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>
@@ -2330,7 +2728,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H21" s="2">
         <v>9647</v>

--- a/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
+++ b/legislator/property/output/normal/陳節如_2012-04-20_財產申報表_tmpacad1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -221,6 +221,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>德利資源</t>
   </si>
   <si>
@@ -279,6 +282,9 @@
   </si>
   <si>
     <t>星展（台灣）商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
 </sst>
 </file>
@@ -2185,41 +2191,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1">
-        <v>13.251</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1">
-        <v>5152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2239,19 +2266,40 @@
       <c r="H2" s="2">
         <v>5152</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>14157.8</v>
@@ -2265,19 +2313,40 @@
       <c r="H3" s="2">
         <v>141578</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -2291,19 +2360,40 @@
       <c r="H4" s="2">
         <v>12794</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
         <v>6187.3</v>
@@ -2317,19 +2407,40 @@
       <c r="H5" s="2">
         <v>61873</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2">
         <v>19931.3</v>
@@ -2343,13 +2454,34 @@
       <c r="H6" s="2">
         <v>199313</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -2369,13 +2501,34 @@
       <c r="H7" s="2">
         <v>94957</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -2395,13 +2548,34 @@
       <c r="H8" s="2">
         <v>60008</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -2421,13 +2595,34 @@
       <c r="H9" s="2">
         <v>14882</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -2447,13 +2642,34 @@
       <c r="H10" s="2">
         <v>34542</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -2473,13 +2689,34 @@
       <c r="H11" s="2">
         <v>16186</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -2499,19 +2736,40 @@
       <c r="H12" s="2">
         <v>4134</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -2525,19 +2783,40 @@
       <c r="H13" s="2">
         <v>62594</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2">
         <v>108.22</v>
@@ -2551,13 +2830,34 @@
       <c r="H14" s="2">
         <v>31948</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -2577,13 +2877,34 @@
       <c r="H15" s="2">
         <v>40128</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -2603,13 +2924,34 @@
       <c r="H16" s="2">
         <v>12377</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
@@ -2629,13 +2971,34 @@
       <c r="H17" s="2">
         <v>16607</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
@@ -2655,13 +3018,34 @@
       <c r="H18" s="2">
         <v>10152</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -2681,13 +3065,34 @@
       <c r="H19" s="2">
         <v>9485</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -2707,13 +3112,34 @@
       <c r="H20" s="2">
         <v>12673</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -2732,6 +3158,27 @@
       </c>
       <c r="H21" s="2">
         <v>9647</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
